--- a/对话表等静态数据/point2TalkNode.xlsx
+++ b/对话表等静态数据/point2TalkNode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Text\UnityObjects\Human1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\Text\UnityObjects\Human1\对话表等静态数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>self goto 10</t>
+    <t>self goto 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -456,10 +456,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -467,10 +467,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>-1</v>
